--- a/data/spring-cloud-shop/shop-user-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-user-api_structure.xlsx
@@ -648,12 +648,15 @@
     <t>addressService</t>
   </si>
   <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -663,70 +666,67 @@
     <t>status</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>stringRedisSerializer</t>
   </si>
   <si>
     <t>org.springframework.data.redis.serializer.StringRedisSerializer</t>
   </si>
   <si>
+    <t>deliveryAddress</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>defaultAddress</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>cityName</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
-    <t>deliveryAddress</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>defaultAddress</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>cityName</t>
-  </si>
-  <si>
     <t>houseNumber</t>
   </si>
   <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>avatar</t>
+    <t>id</t>
   </si>
   <si>
     <t>images</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>userService</t>
   </si>
   <si>
+    <t>userInfoMapper</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>userMapper</t>
-  </si>
-  <si>
-    <t>userInfoMapper</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>userAccountMapper</t>
@@ -11915,7 +11915,7 @@
         <v>97</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>211</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -11923,13 +11923,13 @@
         <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>36</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7">
@@ -11943,7 +11943,7 @@
         <v>97</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -11965,13 +11965,13 @@
         <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>211</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -11979,7 +11979,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>97</v>
@@ -11993,13 +11993,13 @@
         <v>46</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -12027,7 +12027,7 @@
         <v>97</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -12035,13 +12035,13 @@
         <v>46</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>48</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -12049,7 +12049,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>97</v>
@@ -12063,7 +12063,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>97</v>
@@ -12077,7 +12077,7 @@
         <v>46</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>97</v>
@@ -12091,13 +12091,13 @@
         <v>46</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -12119,7 +12119,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>97</v>
@@ -12133,13 +12133,13 @@
         <v>67</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>211</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -12147,13 +12147,13 @@
         <v>67</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -12161,13 +12161,13 @@
         <v>67</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -12175,13 +12175,13 @@
         <v>67</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>30</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
@@ -12195,7 +12195,7 @@
         <v>97</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -12203,13 +12203,13 @@
         <v>86</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>211</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -12217,7 +12217,7 @@
         <v>86</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>97</v>
@@ -12231,13 +12231,13 @@
         <v>86</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>13</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -12251,7 +12251,7 @@
         <v>97</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -12259,13 +12259,13 @@
         <v>86</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -12293,7 +12293,7 @@
         <v>97</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -12307,7 +12307,7 @@
         <v>97</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>117</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34">
@@ -12315,13 +12315,13 @@
         <v>93</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>234</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35">
@@ -12371,13 +12371,13 @@
         <v>136</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39">
@@ -12405,7 +12405,7 @@
         <v>97</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>211</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -12413,13 +12413,13 @@
         <v>150</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>13</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
@@ -12455,13 +12455,13 @@
         <v>157</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>211</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
@@ -12469,13 +12469,13 @@
         <v>157</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>36</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46">
@@ -12497,13 +12497,13 @@
         <v>189</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48">
@@ -12511,13 +12511,13 @@
         <v>189</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>97</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49">
